--- a/src/main/resources/contaexcel.xlsx
+++ b/src/main/resources/contaexcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josevictorsleiman/Documents/GIT_REPOS/PayChallenge-Ledger/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BD9910-73F0-0A42-B9D6-F56826A7103D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E939B2-D1C4-C74F-9E59-8A76C40C8CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{3F8305C1-DA40-5944-A143-044594E9F3E5}"/>
   </bookViews>
@@ -407,7 +407,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
